--- a/wishlist_clara.xlsx
+++ b/wishlist_clara.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\storage\OneDrive\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfn7021\Downloads\wishlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DA1030-8455-469F-B16E-3C80CA50A313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C51476-6629-45F0-A042-3E39B7426CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="43200" windowHeight="17145" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19185" windowHeight="23400" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Clara" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Clara!$A$1:$E$23</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>Image</t>
   </si>
@@ -101,9 +104,6 @@
     <t>https://www.amazon.de/dp/B09VP87MH5?psc=1&amp;ref_=cm_sw_r_cp_ud_ct_WRC2J9TPX505376KF519</t>
   </si>
   <si>
-    <t>https://www.amazon.de/dp/3741524727?psc=1&amp;ref_=cm_sw_r_cp_ud_ct_WRC2J9TPX505376KF519</t>
-  </si>
-  <si>
     <t>https://www.amazon.de/dp/B09BW499NB?psc=1&amp;ref_=cm_sw_r_cp_ud_ct_WRC2J9TPX505376KF519</t>
   </si>
   <si>
@@ -137,9 +137,6 @@
     <t>https://www.galaxus.ch/im/Files/4/0/1/1/5/0/4/1/1000x1000.jpg?impolicy=ProductTileImage&amp;resizeWidth=959&amp;resizeHeight=992&amp;cropWidth=959&amp;cropHeight=992&amp;quality=high</t>
   </si>
   <si>
-    <t>https://www.galaxus.ch/im/Files/2/9/8/7/6/0/2/0/01.jpg?impolicy=ProductTileImage&amp;resizeWidth=700&amp;resizeHeight=485&amp;cropWidth=700&amp;cropHeight=485&amp;quality=high</t>
-  </si>
-  <si>
     <t>https://www.galaxus.ch/im/productimages/6/9/2/7/3/5/9/7/6/1/1/5/1/9/9/7/7/4/7/105daca9-41c9-44ef-b2cb-9f3d6daef077.jpg?impolicy=ProductTileImage&amp;resizeWidth=615&amp;resizeHeight=700&amp;cropWidth=615&amp;cropHeight=700&amp;quality=high</t>
   </si>
   <si>
@@ -164,15 +161,9 @@
     <t>https://m.media-amazon.com/images/I/61MHxzXWLSL._AC_SL1500_.jpg</t>
   </si>
   <si>
-    <t>https://m.media-amazon.com/images/I/71IQvmivQSL.jpg</t>
-  </si>
-  <si>
     <t>https://m.media-amazon.com/images/I/81ijBfE-oiL._AC_SL1500_.jpg</t>
   </si>
   <si>
-    <t>https://m.media-amazon.com/images/I/71Ne9LAW7qL._AC_SL1500_.jpg</t>
-  </si>
-  <si>
     <t>https://m.media-amazon.com/images/I/91hoHOl574S._AC_SL1500_.jpg</t>
   </si>
   <si>
@@ -230,9 +221,6 @@
     <t>Dinosaur Money Box</t>
   </si>
   <si>
-    <t>Magic Water Colouring</t>
-  </si>
-  <si>
     <t>Reusable Puffy Stickers</t>
   </si>
   <si>
@@ -290,9 +278,6 @@
     <t>19 EUR</t>
   </si>
   <si>
-    <t>9 EUR</t>
-  </si>
-  <si>
     <t>11 EUR</t>
   </si>
   <si>
@@ -308,9 +293,6 @@
     <t>29 EUR</t>
   </si>
   <si>
-    <t>Reserved</t>
-  </si>
-  <si>
     <t>https://www.amazon.de/dp/B07ZYCF82T?ref_=cm_sw_r_apin_dp_6JF3W7ZDRFTJN6E5HPH2</t>
   </si>
   <si>
@@ -324,6 +306,15 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>Reserved / bought</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/G/03/apparel/rcxgs/tile._CB483369910_.gif</t>
+  </si>
+  <si>
+    <t>https://www.galaxus.ch/im/productimages/5/4/9/2/7/5/0/9/2/1/0/5/8/9/6/3/5/1/1/1e39fe12-4347-4476-a617-1326772b6c15_cropped.jpg?impolicy=ProductTileImage&amp;resizeWidth=700&amp;resizeHeight=483&amp;cropWidth=700&amp;cropHeight=483&amp;quality=high</t>
   </si>
 </sst>
 </file>
@@ -701,16 +692,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
-  <dimension ref="A1:E24"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="26.140625" customWidth="1"/>
     <col min="3" max="3" width="53.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -727,386 +720,391 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="E2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="E6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>69</v>
+      </c>
+      <c r="E7" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D11" t="s">
-        <v>75</v>
+        <v>81</v>
+      </c>
+      <c r="E11" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="E14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E16" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
         <v>68</v>
       </c>
-      <c r="B17" t="s">
+      <c r="E18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>88</v>
-      </c>
-      <c r="E17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>51</v>
-      </c>
       <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E21" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
         <v>27</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E23" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D24">
-    <sortCondition ref="D3:D24"/>
+  <autoFilter ref="A1:E23" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
+    <filterColumn colId="4">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D23">
+    <sortCondition ref="D2:D23"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C15" r:id="rId1" location="fullscreen=show" xr:uid="{1A02B781-E7E7-4B92-A85E-1ACD935604EA}"/>
-    <hyperlink ref="C22" r:id="rId2" xr:uid="{AE053E90-3043-4F85-8351-00EA962D15A2}"/>
-    <hyperlink ref="C23" r:id="rId3" xr:uid="{4606D8A5-76CF-4E28-A2ED-D80B71596B23}"/>
-    <hyperlink ref="C20" r:id="rId4" xr:uid="{A9B1D388-5F8C-4098-9636-010B678FFD7F}"/>
-    <hyperlink ref="C19" r:id="rId5" xr:uid="{6851EE89-FE08-439F-9B60-E75178456568}"/>
-    <hyperlink ref="C21" r:id="rId6" xr:uid="{7A23E958-EA72-4FBC-9F34-A0175124CE33}"/>
-    <hyperlink ref="C24" r:id="rId7" xr:uid="{68119AEF-CE91-4E73-BAB3-D748BC99E1B4}"/>
-    <hyperlink ref="C8" r:id="rId8" location="fullscreen=show" xr:uid="{86BE5523-9E63-4BE3-AAF0-8CC247348817}"/>
-    <hyperlink ref="C11" r:id="rId9" xr:uid="{538835FD-B89C-41D6-A897-E9379CC4761F}"/>
-    <hyperlink ref="C14" r:id="rId10" location="fullscreen=show" xr:uid="{DE1496EA-C865-463C-A8B0-053F254D6987}"/>
-    <hyperlink ref="C18" r:id="rId11" xr:uid="{6D6899FB-0F5F-417C-B892-41818BEBC3B7}"/>
-    <hyperlink ref="C4" r:id="rId12" xr:uid="{141942E3-D052-412E-A55E-2D01D8C80BA1}"/>
-    <hyperlink ref="C7" r:id="rId13" xr:uid="{E2FC607A-FC7C-4E31-BEC0-7106F74AF075}"/>
-    <hyperlink ref="C5" r:id="rId14" xr:uid="{63B31D13-4BFA-430B-BC90-939D78D0F395}"/>
-    <hyperlink ref="C6" r:id="rId15" xr:uid="{DFC89AF2-AC4D-47E7-A8BF-64E4BB7F6BBA}"/>
-    <hyperlink ref="C9" r:id="rId16" xr:uid="{023E3859-BD14-4AE4-8694-20892F2DD400}"/>
-    <hyperlink ref="C2" r:id="rId17" xr:uid="{A46C8FBB-687F-4272-856C-B9A2E282C9A5}"/>
-    <hyperlink ref="C3" r:id="rId18" xr:uid="{07B14049-D6B4-4F6A-817E-C87EA5232BB4}"/>
-    <hyperlink ref="C10" r:id="rId19" xr:uid="{FFE1D2D9-E4EE-4E82-9DA1-021D332E2D6D}"/>
-    <hyperlink ref="C12" r:id="rId20" xr:uid="{CCAF8718-CFD1-4C0F-B1A2-C1F062136E70}"/>
-    <hyperlink ref="C17" r:id="rId21" xr:uid="{79066398-C3FC-402A-9767-1D8B07E707D3}"/>
+    <hyperlink ref="C14" r:id="rId1" location="fullscreen=show" xr:uid="{93872F5B-0C07-4D3E-9FDC-981E7DA3A8B0}"/>
+    <hyperlink ref="C21" r:id="rId2" xr:uid="{1CBC2028-0FBF-4DBA-991B-F5720BFF0FC0}"/>
+    <hyperlink ref="C22" r:id="rId3" xr:uid="{A317B2E7-D11B-404B-814F-4951ACCCB496}"/>
+    <hyperlink ref="C19" r:id="rId4" xr:uid="{9EBDD113-7B60-4FA0-9816-040A4FA982B0}"/>
+    <hyperlink ref="C18" r:id="rId5" xr:uid="{9F42AFB6-E6EF-4F98-BD0C-625DD8B9D0C0}"/>
+    <hyperlink ref="C20" r:id="rId6" xr:uid="{4DBAA792-F75D-44BA-9830-379FEE2AC645}"/>
+    <hyperlink ref="C23" r:id="rId7" xr:uid="{91B6E46A-10A1-4590-929A-CCA5D9A34E33}"/>
+    <hyperlink ref="C7" r:id="rId8" location="fullscreen=show" xr:uid="{D61A7CE0-3FEE-49C5-A589-89C3542BDDD5}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{D7C1F1EB-5B11-416E-8A93-7DDE34EFB393}"/>
+    <hyperlink ref="C13" r:id="rId10" location="fullscreen=show" xr:uid="{726FFA01-F771-4AE0-A56E-AC8B3D5BBA21}"/>
+    <hyperlink ref="C17" r:id="rId11" xr:uid="{F9E8BB86-AE50-42F5-A2EB-A5AE083F711A}"/>
+    <hyperlink ref="C3" r:id="rId12" xr:uid="{FD856949-3F16-4159-BE6B-A20C706459F4}"/>
+    <hyperlink ref="C6" r:id="rId13" xr:uid="{D8BFE17E-DF27-42BE-9008-2B58FCF62AC5}"/>
+    <hyperlink ref="C4" r:id="rId14" xr:uid="{ACB8C30E-DA07-432A-8D8A-35621280F4DE}"/>
+    <hyperlink ref="C5" r:id="rId15" xr:uid="{DCABB4B9-EA39-4015-8EF2-A400F2F52378}"/>
+    <hyperlink ref="C8" r:id="rId16" xr:uid="{3CDF166A-E4C5-42BF-A1A5-9540C35727AF}"/>
+    <hyperlink ref="C2" r:id="rId17" xr:uid="{4F8F927F-3500-495C-80AE-B01291A47CED}"/>
+    <hyperlink ref="C9" r:id="rId18" xr:uid="{FDF6EF39-70BA-46D0-8028-D418F90E90BB}"/>
+    <hyperlink ref="C11" r:id="rId19" xr:uid="{1A8BAC60-B56A-4F82-AACC-642F76628710}"/>
+    <hyperlink ref="C16" r:id="rId20" xr:uid="{14F5821C-C44D-4873-8658-99F81A6E6FF2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
--- a/wishlist_clara.xlsx
+++ b/wishlist_clara.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfn7021\Downloads\wishlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C51476-6629-45F0-A042-3E39B7426CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F88FA0-F215-4E53-A6A3-E293D2FBC88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19185" windowHeight="23400" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
@@ -137,9 +137,6 @@
     <t>https://www.galaxus.ch/im/Files/4/0/1/1/5/0/4/1/1000x1000.jpg?impolicy=ProductTileImage&amp;resizeWidth=959&amp;resizeHeight=992&amp;cropWidth=959&amp;cropHeight=992&amp;quality=high</t>
   </si>
   <si>
-    <t>https://www.galaxus.ch/im/productimages/6/9/2/7/3/5/9/7/6/1/1/5/1/9/9/7/7/4/7/105daca9-41c9-44ef-b2cb-9f3d6daef077.jpg?impolicy=ProductTileImage&amp;resizeWidth=615&amp;resizeHeight=700&amp;cropWidth=615&amp;cropHeight=700&amp;quality=high</t>
-  </si>
-  <si>
     <t>https://www.galaxus.ch/im/productimages/7/2/3/3/9/0/9/5/0/5/3/2/1/5/0/9/4/3/8/6fbb33f9-0079-4255-9c07-c07a8b944cd8.jpg</t>
   </si>
   <si>
@@ -311,10 +308,13 @@
     <t>Reserved / bought</t>
   </si>
   <si>
-    <t>https://m.media-amazon.com/images/G/03/apparel/rcxgs/tile._CB483369910_.gif</t>
-  </si>
-  <si>
     <t>https://www.galaxus.ch/im/productimages/5/4/9/2/7/5/0/9/2/1/0/5/8/9/6/3/5/1/1/1e39fe12-4347-4476-a617-1326772b6c15_cropped.jpg?impolicy=ProductTileImage&amp;resizeWidth=700&amp;resizeHeight=483&amp;cropWidth=700&amp;cropHeight=483&amp;quality=high</t>
+  </si>
+  <si>
+    <t>https://www.galaxus.ch/im/productimages/4/8/5/0/4/6/4/9/2/5/9/8/2/2/9/9/7/1/9/0d7b50f8-1fb0-4c3c-9836-4f180c96c174_cropped.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71Ne9LAW7qL._AC_SL1500_.jpg</t>
   </si>
 </sst>
 </file>
@@ -696,7 +696,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,91 +720,91 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
@@ -813,167 +813,167 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" t="s">
         <v>84</v>
       </c>
-      <c r="D15" t="s">
-        <v>85</v>
-      </c>
       <c r="E15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
         <v>28</v>
@@ -982,15 +982,15 @@
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -999,15 +999,15 @@
         <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -1016,15 +1016,15 @@
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1033,15 +1033,15 @@
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
         <v>27</v>
@@ -1050,15 +1050,15 @@
         <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
         <v>30</v>
@@ -1067,10 +1067,10 @@
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
